--- a/deployment/Omaha_Cal_Info_CE09OSPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSPM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -23,24 +23,24 @@
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0_0">Moorings!$B$1:$K$84</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$400</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$399</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$400</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$H$400</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$399</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$H$399</definedName>
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$H$400</definedName>
+    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$H$399</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$H$29</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$84</definedName>
-    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$400</definedName>
+    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$399</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
   <si>
     <t>Ref Des</t>
   </si>
@@ -183,16 +183,10 @@
     <t>CC_scattering_angle</t>
   </si>
   <si>
-    <t>CE09OSPM-SBS01-00-RTE000000</t>
-  </si>
-  <si>
     <t>CE09OSPM-WFP01-00-WFPENG000</t>
   </si>
   <si>
     <t>OSPM-00002-STC</t>
-  </si>
-  <si>
-    <t>OSPM-00002-RTE</t>
   </si>
   <si>
     <t>This serial number is a placekeeper used until the correct serial number is found or defined</t>
@@ -258,6 +252,9 @@
   </si>
   <si>
     <t>N00068</t>
+  </si>
+  <si>
+    <t>OL000373</t>
   </si>
 </sst>
 </file>
@@ -840,27 +837,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875"/>
-    <col min="3" max="3" width="39.44140625"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.44140625"/>
-    <col min="8" max="8" width="18.6640625"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875"/>
-    <col min="11" max="11" width="12.6640625"/>
-    <col min="12" max="12" width="51.6640625"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="1027" width="8.6640625"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125"/>
+    <col min="8" max="8" width="18.7109375"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="12.7109375"/>
+    <col min="12" max="12" width="51.7109375"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6">
+    <row r="1" spans="1:14" ht="25.5">
       <c r="A1" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -896,9 +893,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -956,36 +953,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28:E29"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875"/>
-    <col min="11" max="11" width="14.44140625"/>
-    <col min="12" max="12" width="13.44140625"/>
-    <col min="13" max="1027" width="8.6640625"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875"/>
+    <col min="11" max="11" width="14.42578125"/>
+    <col min="12" max="12" width="13.42578125"/>
+    <col min="13" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.4">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>10</v>
@@ -994,7 +991,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>11</v>
@@ -1011,7 +1008,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>39</v>
@@ -1020,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>16</v>
@@ -1037,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>39</v>
@@ -1046,10 +1043,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1063,7 +1060,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>39</v>
@@ -1072,10 +1069,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
@@ -1089,7 +1086,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>39</v>
@@ -1098,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>17</v>
@@ -1110,7 +1107,7 @@
         <v>3.1838E-4</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1118,7 +1115,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>39</v>
@@ -1127,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
@@ -1144,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>39</v>
@@ -1153,10 +1150,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
@@ -1170,7 +1167,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>39</v>
@@ -1179,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
@@ -1196,7 +1193,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>39</v>
@@ -1205,10 +1202,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
@@ -1232,7 +1229,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>39</v>
@@ -1241,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5">
         <v>112</v>
@@ -1258,7 +1255,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>39</v>
@@ -1267,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="5">
         <v>112</v>
@@ -1291,10 +1288,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
@@ -1303,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="6">
         <v>100017</v>
@@ -1317,10 +1314,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>39</v>
@@ -1329,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6">
         <v>100017</v>
@@ -1356,7 +1353,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
@@ -1365,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5">
         <v>1032</v>
@@ -1377,7 +1374,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1385,7 +1382,7 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>39</v>
@@ -1394,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5">
         <v>1032</v>
@@ -1411,7 +1408,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>39</v>
@@ -1420,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5">
         <v>1032</v>
@@ -1437,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>39</v>
@@ -1446,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5">
         <v>1032</v>
@@ -1463,7 +1460,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>39</v>
@@ -1472,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="5">
         <v>1032</v>
@@ -1489,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>39</v>
@@ -1498,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5">
         <v>1032</v>
@@ -1515,7 +1512,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>39</v>
@@ -1524,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" s="5">
         <v>1032</v>
@@ -1541,7 +1538,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>39</v>
@@ -1550,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="5">
         <v>1032</v>
@@ -1567,7 +1564,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>39</v>
@@ -1576,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F25" s="5">
         <v>1032</v>
@@ -1593,7 +1590,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>39</v>
@@ -1602,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F26" s="5">
         <v>1032</v>
@@ -1629,7 +1626,7 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>39</v>
@@ -1638,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="5">
         <v>20448</v>
@@ -1655,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>39</v>
@@ -1664,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="5">
         <v>20448</v>
@@ -1685,7 +1682,7 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>39</v>
@@ -1693,12 +1690,14 @@
       <c r="D31" s="5">
         <v>2</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
       <c r="F31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1706,40 +1705,19 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="5">
-        <v>2</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
